--- a/October 2018/Saturday_Sunday_Weekday/Validation/Input_October2018.xlsx
+++ b/October 2018/Saturday_Sunday_Weekday/Validation/Input_October2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34144DFD-8A77-4396-ABBD-B4E597BDC88F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BCB23-C0C9-4278-BD0E-FD06254572D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,6 +521,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,7 +549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -32469,7 +32469,7 @@
   <dimension ref="E4:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -32481,7 +32481,7 @@
       <c r="F4">
         <v>9756.2401250000003</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="23" t="s">
         <v>93</v>
       </c>
       <c r="R4" t="s">
@@ -60316,39 +60316,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="6" t="s">
@@ -60604,7 +60604,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -60708,7 +60708,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -60810,7 +60810,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -60912,7 +60912,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
@@ -61014,7 +61014,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -61116,7 +61116,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -61218,7 +61218,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
@@ -61320,7 +61320,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
@@ -61422,7 +61422,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -61524,7 +61524,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -61626,7 +61626,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -61728,7 +61728,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
@@ -61830,7 +61830,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
@@ -61932,7 +61932,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
@@ -62034,7 +62034,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
@@ -62136,7 +62136,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
@@ -62238,7 +62238,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
@@ -62340,7 +62340,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -62442,7 +62442,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -62544,7 +62544,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
@@ -62646,7 +62646,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -62748,7 +62748,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -62850,7 +62850,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -62952,7 +62952,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -63054,7 +63054,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
@@ -63156,7 +63156,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
@@ -63258,7 +63258,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
@@ -63360,7 +63360,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -63462,7 +63462,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
@@ -63564,7 +63564,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="29"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
@@ -63666,7 +63666,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="12" t="s">
         <v>55</v>
       </c>
@@ -63768,113 +63768,113 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="F46" t="s">
         <v>87</v>
       </c>
@@ -63887,9 +63887,9 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="F47" t="s">
         <v>88</v>
       </c>
@@ -63960,13 +63960,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
@@ -64120,7 +64120,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
@@ -64224,7 +64224,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -64326,7 +64326,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -64428,7 +64428,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -64530,7 +64530,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -64632,7 +64632,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -64734,7 +64734,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -64836,7 +64836,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -64938,7 +64938,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -65040,7 +65040,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -65142,7 +65142,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -65244,7 +65244,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -65346,7 +65346,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -65448,7 +65448,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -65550,7 +65550,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -65652,7 +65652,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -65754,7 +65754,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -65856,7 +65856,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -65958,7 +65958,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -66060,7 +66060,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -66162,7 +66162,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -66264,7 +66264,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -66366,7 +66366,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -66468,7 +66468,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -66570,7 +66570,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -66672,7 +66672,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -66774,7 +66774,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -66876,7 +66876,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -66978,7 +66978,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" t="s">
         <v>29</v>
       </c>
@@ -67080,7 +67080,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -67182,7 +67182,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" t="s">
         <v>55</v>
       </c>
